--- a/biology/Zoologie/Bachkir_(cheval)/Bachkir_(cheval).xlsx
+++ b/biology/Zoologie/Bachkir_(cheval)/Bachkir_(cheval).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Bachkir (russe : Bachkirskaïa) est une race de chevaux rustique, originaire de la région de Bachkirie, dans l'Oural en Russie.
@@ -512,9 +524,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après l'écrivain Giacomo Giammatteo, la seule graphie juste du nom de cette race de chevaux fait appel à une initiale en lettre majuscule, dans la mesure où cette race est nommée d'après le peuple des Bachkirs[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après l'écrivain Giacomo Giammatteo, la seule graphie juste du nom de cette race de chevaux fait appel à une initiale en lettre majuscule, dans la mesure où cette race est nommée d'après le peuple des Bachkirs.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La race a été formée en Bachkirie[2]. Le Bachkir descend des chevaux des steppes d'Asie de l'Ouest et a été développé par le peuple Bachkir, arrivé en Asie au VIIe siècle.
-Ces chevaux sont historiquement élevés en vastes tabounes[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La race a été formée en Bachkirie. Le Bachkir descend des chevaux des steppes d'Asie de l'Ouest et a été développé par le peuple Bachkir, arrivé en Asie au VIIe siècle.
+Ces chevaux sont historiquement élevés en vastes tabounes.
 </t>
         </is>
       </c>
@@ -575,14 +591,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après CAB International, il toise de 1,34 m à 1,42 m[2]. Il présente un type turc et est nettement distinct du cheval mongol, mais plus épais que les chevaux turcs des régions plus méridionales[2]. Il existe deux types, celui des montagnes et celui des plaines. le premier est plus petit et plus épais que le second, plus proche du cheval des steppes[2].
-La tête est grosse, l'encolure courte et épaisse[2]. Le corps est petit mais large[2].
-La robe est habituellement baie, alezane, noire, rouan, mais aussi avec gène Dun, notamment souris[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après CAB International, il toise de 1,34 m à 1,42 m. Il présente un type turc et est nettement distinct du cheval mongol, mais plus épais que les chevaux turcs des régions plus méridionales. Il existe deux types, celui des montagnes et celui des plaines. le premier est plus petit et plus épais que le second, plus proche du cheval des steppes.
+La tête est grosse, l'encolure courte et épaisse. Le corps est petit mais large.
+La robe est habituellement baie, alezane, noire, rouan, mais aussi avec gène Dun, notamment souris.
 Le Bachkir est extrêmement résistant. En troupeau, il supporte des températures très basses. 
-Allures
-Certains Bachkirs sont réputés pour se déplacer à l'amble plutôt qu'au trot[2]. La race a fait l'objet d'une étude visant à déterminer la présence de la mutation du gène DMRT3 à l'origine des allures supplémentaire : cette étude a permis de confirmer la présence de cette mutation chez le bachkir, à très faible taux, mais pas l'existence de chevaux ambleurs parmi la race[3]. 
 </t>
         </is>
       </c>
@@ -608,13 +624,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Utilisations</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ces chevaux sont utilisés pour une foule de tâches, sous la selle comme à la traction[2]. Deux Bachkirs sont capables de tirer un traîneau sur 120 à 140 km, en 24 heures, sans prendre de nourriture. Les juments sont traites pour leur lait[2]. Une jument donne en moyenne 1 500 litres de lait par période de lactation (sept à huit mois) avec un maximum pouvant atteindre 2 700 litres[2]. La race est aussi élevée pour sa viande[2].
-La race est utilisée en croisement avec le trait russe, le Kazakh, le Iakoute, le cheval du Don, le Pur-sang, et des trotteurs[2].
+          <t>Allures</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains Bachkirs sont réputés pour se déplacer à l'amble plutôt qu'au trot. La race a fait l'objet d'une étude visant à déterminer la présence de la mutation du gène DMRT3 à l'origine des allures supplémentaire : cette étude a permis de confirmer la présence de cette mutation chez le bachkir, à très faible taux, mais pas l'existence de chevaux ambleurs parmi la race. 
 </t>
         </is>
       </c>
@@ -640,12 +661,48 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces chevaux sont utilisés pour une foule de tâches, sous la selle comme à la traction. Deux Bachkirs sont capables de tirer un traîneau sur 120 à 140 km, en 24 heures, sans prendre de nourriture. Les juments sont traites pour leur lait. Une jument donne en moyenne 1 500 litres de lait par période de lactation (sept à huit mois) avec un maximum pouvant atteindre 2 700 litres. La race est aussi élevée pour sa viande.
+La race est utilisée en croisement avec le trait russe, le Kazakh, le Iakoute, le cheval du Don, le Pur-sang, et des trotteurs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bachkir_(cheval)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bachkir_(cheval)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Diffusion de l'élevage</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La race est propre aux montagnes de l'Oural[4], dans la Bachkirie[2], incluant le sud de l'Oural et les plaines attenantes au Sud et à l'Ouest[2]. Elle est particulièrement présente dans la région d'Oufa[2]. Elle est considérée comme commune[4]. Par ailleurs, l'ouvrage Equine Science (4e édition de 2012) le classe parmi les races de poneys peu connues au niveau international[5].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La race est propre aux montagnes de l'Oural, dans la Bachkirie, incluant le sud de l'Oural et les plaines attenantes au Sud et à l'Ouest. Elle est particulièrement présente dans la région d'Oufa. Elle est considérée comme commune. Par ailleurs, l'ouvrage Equine Science (4e édition de 2012) le classe parmi les races de poneys peu connues au niveau international.
 On trouve, en Amérique du Nord, une race anciennement appelée l′American Bashkir Curly. Cette appellation tend à disparaître, l'appellation correcte étant Curly, la race américaine n'ayant en réalité aucun lien avec la race de Bachkirie.
 </t>
         </is>
